--- a/goldenfeats_all categories.xlsx
+++ b/goldenfeats_all categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D52859-26A9-425F-B568-F5714CA7D381}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0954E653-F024-49BB-964C-13D1F04F7058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="522" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="feats" sheetId="7" r:id="rId1"/>
@@ -1054,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BFEB71-F67F-40D0-AFB0-3B2E50FF6453}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1112,11 +1112,11 @@
         <v>81</v>
       </c>
       <c r="E2" t="str">
-        <f>LEFT(C2,2)</f>
+        <f t="shared" ref="E2:E24" si="0">LEFT(C2,2)</f>
         <v>bU</v>
       </c>
       <c r="F2" t="str">
-        <f>RIGHT(C2,2)</f>
+        <f t="shared" ref="F2:F33" si="1">RIGHT(C2,2)</f>
         <v>Ul</v>
       </c>
       <c r="G2" t="s">
@@ -1152,11 +1152,11 @@
         <v>75</v>
       </c>
       <c r="E3" t="str">
-        <f>LEFT(C3,2)</f>
+        <f t="shared" si="0"/>
         <v>bU</v>
       </c>
       <c r="F3" t="str">
-        <f>RIGHT(C3,2)</f>
+        <f t="shared" si="1"/>
         <v>Un</v>
       </c>
       <c r="G3" t="s">
@@ -1192,11 +1192,11 @@
         <v>81</v>
       </c>
       <c r="E4" t="str">
-        <f>LEFT(C4,2)</f>
+        <f t="shared" si="0"/>
         <v>bY</v>
       </c>
       <c r="F4" t="str">
-        <f>RIGHT(C4,2)</f>
+        <f t="shared" si="1"/>
         <v>Yl</v>
       </c>
       <c r="G4" t="s">
@@ -1232,11 +1232,11 @@
         <v>75</v>
       </c>
       <c r="E5" t="str">
-        <f>LEFT(C5,2)</f>
+        <f t="shared" si="0"/>
         <v>bY</v>
       </c>
       <c r="F5" t="str">
-        <f>RIGHT(C5,2)</f>
+        <f t="shared" si="1"/>
         <v>Yr</v>
       </c>
       <c r="G5" t="s">
@@ -1272,11 +1272,11 @@
         <v>81</v>
       </c>
       <c r="E6" t="str">
-        <f>LEFT(C6,2)</f>
+        <f t="shared" si="0"/>
         <v>dE</v>
       </c>
       <c r="F6" t="str">
-        <f>RIGHT(C6,2)</f>
+        <f t="shared" si="1"/>
         <v>Ex</v>
       </c>
       <c r="G6" t="s">
@@ -1312,11 +1312,11 @@
         <v>75</v>
       </c>
       <c r="E7" t="str">
-        <f>LEFT(C7,2)</f>
+        <f t="shared" si="0"/>
         <v>dE</v>
       </c>
       <c r="F7" t="str">
-        <f>RIGHT(C7,2)</f>
+        <f t="shared" si="1"/>
         <v>EN</v>
       </c>
       <c r="G7" t="s">
@@ -1352,11 +1352,11 @@
         <v>75</v>
       </c>
       <c r="E8" t="str">
-        <f>LEFT(C8,2)</f>
+        <f t="shared" si="0"/>
         <v>gY</v>
       </c>
       <c r="F8" t="str">
-        <f>RIGHT(C8,2)</f>
+        <f t="shared" si="1"/>
         <v>Yl</v>
       </c>
       <c r="G8" t="s">
@@ -1392,11 +1392,11 @@
         <v>81</v>
       </c>
       <c r="E9" t="str">
-        <f>LEFT(C9,2)</f>
+        <f t="shared" si="0"/>
         <v>gY</v>
       </c>
       <c r="F9" t="str">
-        <f>RIGHT(C9,2)</f>
+        <f t="shared" si="1"/>
         <v>Yr</v>
       </c>
       <c r="G9" t="s">
@@ -1432,11 +1432,11 @@
         <v>81</v>
       </c>
       <c r="E10" t="str">
-        <f>LEFT(C10,2)</f>
+        <f t="shared" si="0"/>
         <v>kI</v>
       </c>
       <c r="F10" t="str">
-        <f>RIGHT(C10,2)</f>
+        <f t="shared" si="1"/>
         <v>Ix</v>
       </c>
       <c r="G10" t="s">
@@ -1472,11 +1472,11 @@
         <v>75</v>
       </c>
       <c r="E11" t="str">
-        <f>LEFT(C11,2)</f>
+        <f t="shared" si="0"/>
         <v>kI</v>
       </c>
       <c r="F11" t="str">
-        <f>RIGHT(C11,2)</f>
+        <f t="shared" si="1"/>
         <v>Ir</v>
       </c>
       <c r="G11" t="s">
@@ -1512,11 +1512,11 @@
         <v>75</v>
       </c>
       <c r="E12" t="str">
-        <f>LEFT(C12,2)</f>
+        <f t="shared" si="0"/>
         <v>m@</v>
       </c>
       <c r="F12" t="str">
-        <f>RIGHT(C12,2)</f>
+        <f t="shared" si="1"/>
         <v>@l</v>
       </c>
       <c r="G12" t="s">
@@ -1552,11 +1552,11 @@
         <v>81</v>
       </c>
       <c r="E13" t="str">
-        <f>LEFT(C13,2)</f>
+        <f t="shared" si="0"/>
         <v>m@</v>
       </c>
       <c r="F13" t="str">
-        <f>RIGHT(C13,2)</f>
+        <f t="shared" si="1"/>
         <v>@m</v>
       </c>
       <c r="G13" t="s">
@@ -1592,11 +1592,11 @@
         <v>75</v>
       </c>
       <c r="E14" t="str">
-        <f>LEFT(C14,2)</f>
+        <f t="shared" si="0"/>
         <v>mE</v>
       </c>
       <c r="F14" t="str">
-        <f>RIGHT(C14,2)</f>
+        <f t="shared" si="1"/>
         <v>Ex</v>
       </c>
       <c r="G14" t="s">
@@ -1632,11 +1632,11 @@
         <v>81</v>
       </c>
       <c r="E15" t="str">
-        <f>LEFT(C15,2)</f>
+        <f t="shared" si="0"/>
         <v>mE</v>
       </c>
       <c r="F15" t="str">
-        <f>RIGHT(C15,2)</f>
+        <f t="shared" si="1"/>
         <v>EN</v>
       </c>
       <c r="G15" t="s">
@@ -1672,11 +1672,11 @@
         <v>81</v>
       </c>
       <c r="E16" t="str">
-        <f>LEFT(C16,2)</f>
+        <f t="shared" si="0"/>
         <v>n@</v>
       </c>
       <c r="F16" t="str">
-        <f>RIGHT(C16,2)</f>
+        <f t="shared" si="1"/>
         <v>@l</v>
       </c>
       <c r="G16" t="s">
@@ -1712,11 +1712,11 @@
         <v>75</v>
       </c>
       <c r="E17" t="str">
-        <f>LEFT(C17,2)</f>
+        <f t="shared" si="0"/>
         <v>n@</v>
       </c>
       <c r="F17" t="str">
-        <f>RIGHT(C17,2)</f>
+        <f t="shared" si="1"/>
         <v>@m</v>
       </c>
       <c r="G17" t="s">
@@ -1752,11 +1752,11 @@
         <v>81</v>
       </c>
       <c r="E18" t="str">
-        <f>LEFT(C18,2)</f>
+        <f t="shared" si="0"/>
         <v>nE</v>
       </c>
       <c r="F18" t="str">
-        <f>RIGHT(C18,2)</f>
+        <f t="shared" si="1"/>
         <v>Ex</v>
       </c>
       <c r="G18" t="s">
@@ -1792,11 +1792,11 @@
         <v>75</v>
       </c>
       <c r="E19" t="str">
-        <f>LEFT(C19,2)</f>
+        <f t="shared" si="0"/>
         <v>nE</v>
       </c>
       <c r="F19" t="str">
-        <f>RIGHT(C19,2)</f>
+        <f t="shared" si="1"/>
         <v>Er</v>
       </c>
       <c r="G19" t="s">
@@ -1832,11 +1832,11 @@
         <v>75</v>
       </c>
       <c r="E20" t="str">
-        <f>LEFT(C20,2)</f>
+        <f t="shared" si="0"/>
         <v>rE</v>
       </c>
       <c r="F20" t="str">
-        <f>RIGHT(C20,2)</f>
+        <f t="shared" si="1"/>
         <v>Ex</v>
       </c>
       <c r="G20" t="s">
@@ -1872,11 +1872,11 @@
         <v>81</v>
       </c>
       <c r="E21" t="str">
-        <f>LEFT(C21,2)</f>
+        <f t="shared" si="0"/>
         <v>rE</v>
       </c>
       <c r="F21" t="str">
-        <f>RIGHT(C21,2)</f>
+        <f t="shared" si="1"/>
         <v>El</v>
       </c>
       <c r="G21" t="s">
@@ -1912,11 +1912,11 @@
         <v>81</v>
       </c>
       <c r="E22" t="str">
-        <f>LEFT(C22,2)</f>
+        <f t="shared" si="0"/>
         <v>rE</v>
       </c>
       <c r="F22" t="str">
-        <f>RIGHT(C22,2)</f>
+        <f t="shared" si="1"/>
         <v>Er</v>
       </c>
       <c r="G22" t="s">
@@ -1952,11 +1952,11 @@
         <v>75</v>
       </c>
       <c r="E23" t="str">
-        <f>LEFT(C23,2)</f>
+        <f t="shared" si="0"/>
         <v>rE</v>
       </c>
       <c r="F23" t="str">
-        <f>RIGHT(C23,2)</f>
+        <f t="shared" si="1"/>
         <v>Es</v>
       </c>
       <c r="G23" t="s">
@@ -1992,11 +1992,11 @@
         <v>75</v>
       </c>
       <c r="E24" t="str">
-        <f>LEFT(C24,2)</f>
+        <f t="shared" si="0"/>
         <v>SI</v>
       </c>
       <c r="F24" t="str">
-        <f>RIGHT(C24,2)</f>
+        <f t="shared" si="1"/>
         <v>Ix</v>
       </c>
       <c r="G24" t="s">
@@ -2026,7 +2026,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -2035,8 +2035,8 @@
         <v>187</v>
       </c>
       <c r="F25" t="str">
-        <f>RIGHT(C25,2)</f>
-        <v>Ix</v>
+        <f t="shared" si="1"/>
+        <v>Ir</v>
       </c>
       <c r="G25" t="s">
         <v>84</v>
@@ -2071,11 +2071,11 @@
         <v>75</v>
       </c>
       <c r="E26" t="str">
-        <f>LEFT(C26,2)</f>
+        <f t="shared" ref="E26:E33" si="2">LEFT(C26,2)</f>
         <v>SU</v>
       </c>
       <c r="F26" t="str">
-        <f>RIGHT(C26,2)</f>
+        <f t="shared" si="1"/>
         <v>Ul</v>
       </c>
       <c r="G26" t="s">
@@ -2111,11 +2111,11 @@
         <v>81</v>
       </c>
       <c r="E27" t="str">
-        <f>LEFT(C27,2)</f>
+        <f t="shared" si="2"/>
         <v>SU</v>
       </c>
       <c r="F27" t="str">
-        <f>RIGHT(C27,2)</f>
+        <f t="shared" si="1"/>
         <v>Un</v>
       </c>
       <c r="G27" t="s">
@@ -2151,11 +2151,11 @@
         <v>81</v>
       </c>
       <c r="E28" t="str">
-        <f>LEFT(C28,2)</f>
+        <f t="shared" si="2"/>
         <v>vU</v>
       </c>
       <c r="F28" t="str">
-        <f>RIGHT(C28,2)</f>
+        <f t="shared" si="1"/>
         <v>UN</v>
       </c>
       <c r="G28" t="s">
@@ -2191,11 +2191,11 @@
         <v>75</v>
       </c>
       <c r="E29" t="str">
-        <f>LEFT(C29,2)</f>
+        <f t="shared" si="2"/>
         <v>vU</v>
       </c>
       <c r="F29" t="str">
-        <f>RIGHT(C29,2)</f>
+        <f t="shared" si="1"/>
         <v>Ur</v>
       </c>
       <c r="G29" t="s">
@@ -2231,11 +2231,11 @@
         <v>75</v>
       </c>
       <c r="E30" t="str">
-        <f>LEFT(C30,2)</f>
+        <f t="shared" si="2"/>
         <v>zE</v>
       </c>
       <c r="F30" t="str">
-        <f>RIGHT(C30,2)</f>
+        <f t="shared" si="1"/>
         <v>El</v>
       </c>
       <c r="G30" t="s">
@@ -2271,11 +2271,11 @@
         <v>81</v>
       </c>
       <c r="E31" t="str">
-        <f>LEFT(C31,2)</f>
+        <f t="shared" si="2"/>
         <v>zE</v>
       </c>
       <c r="F31" t="str">
-        <f>RIGHT(C31,2)</f>
+        <f t="shared" si="1"/>
         <v>Es</v>
       </c>
       <c r="G31" t="s">
@@ -2311,11 +2311,11 @@
         <v>75</v>
       </c>
       <c r="E32" t="str">
-        <f>LEFT(C32,2)</f>
+        <f t="shared" si="2"/>
         <v>zU</v>
       </c>
       <c r="F32" t="str">
-        <f>RIGHT(C32,2)</f>
+        <f t="shared" si="1"/>
         <v>UN</v>
       </c>
       <c r="G32" t="s">
@@ -2351,11 +2351,11 @@
         <v>81</v>
       </c>
       <c r="E33" t="str">
-        <f>LEFT(C33,2)</f>
+        <f t="shared" si="2"/>
         <v>zU</v>
       </c>
       <c r="F33" t="str">
-        <f>RIGHT(C33,2)</f>
+        <f t="shared" si="1"/>
         <v>Ur</v>
       </c>
       <c r="G33" t="s">
@@ -2391,7 +2391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0545B7F1-81B0-4E3A-945A-98148A494396}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:I34"/>
     </sheetView>
   </sheetViews>
@@ -3398,10 +3398,10 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="B1:AE34"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
